--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajjwal\OneDrive\Desktop\Python Programming\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822D6DE3-B3E4-4060-B2AB-58BAB9A7FA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676A9661-C6AC-4E79-9663-B0D8CC955464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="708" yWindow="1224" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Course Sheet" sheetId="1" r:id="rId1"/>
@@ -4263,11 +4263,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4572,8 +4572,8 @@
   </sheetPr>
   <dimension ref="A1:Z748"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4674,7 +4674,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="17" t="str">
         <f>"COMPLETED: " &amp; TEXT(COUNTIF(A:A, "Completed"), "0") &amp; "/" &amp; TEXT(COUNTA(A:A), "0") &amp; " (" &amp; TEXT(COUNTIF(A:A, "Completed") / COUNTA(A:A), "0.00%") &amp; ")"</f>
-        <v>COMPLETED: 54/269 (20.07%)</v>
+        <v>COMPLETED: 56/269 (20.82%)</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="3" t="s">
@@ -4707,7 +4707,7 @@
     </row>
     <row r="5" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="12"/>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="42" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="12"/>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="53" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2"/>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C53" s="12"/>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="85" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2"/>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="14" t="s">
         <v>200</v>
       </c>
       <c r="C85" s="12"/>
@@ -7540,7 +7540,7 @@
     </row>
     <row r="87" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>202</v>
@@ -7578,7 +7578,7 @@
     </row>
     <row r="88" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>206</v>
@@ -8001,7 +8001,7 @@
     </row>
     <row r="100" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2"/>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="14" t="s">
         <v>240</v>
       </c>
       <c r="C100" s="12"/>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="117" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2"/>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="14" t="s">
         <v>283</v>
       </c>
       <c r="C117" s="12"/>
@@ -8645,7 +8645,7 @@
       <c r="D119" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="E119" s="14" t="s">
+      <c r="E119" s="13" t="s">
         <v>288</v>
       </c>
       <c r="F119" s="2"/>
@@ -8680,7 +8680,7 @@
       <c r="C120" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="13" t="s">
         <v>291</v>
       </c>
       <c r="E120" s="12"/>
@@ -8973,10 +8973,10 @@
       <c r="C129" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D129" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="E129" s="14" t="s">
+      <c r="E129" s="13" t="s">
         <v>308</v>
       </c>
       <c r="F129" s="2"/>
@@ -9649,7 +9649,7 @@
     </row>
     <row r="149" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2"/>
-      <c r="B149" s="13" t="s">
+      <c r="B149" s="14" t="s">
         <v>357</v>
       </c>
       <c r="C149" s="12"/>
@@ -9718,7 +9718,7 @@
       <c r="D151" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="E151" s="14" t="s">
+      <c r="E151" s="13" t="s">
         <v>362</v>
       </c>
       <c r="F151" s="2"/>
@@ -9753,7 +9753,7 @@
       <c r="C152" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="D152" s="13" t="s">
         <v>365</v>
       </c>
       <c r="E152" s="12"/>
@@ -10236,7 +10236,7 @@
     </row>
     <row r="167" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="2"/>
-      <c r="B167" s="13" t="s">
+      <c r="B167" s="14" t="s">
         <v>391</v>
       </c>
       <c r="C167" s="12"/>
@@ -11052,7 +11052,7 @@
     </row>
     <row r="191" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="2"/>
-      <c r="B191" s="13" t="s">
+      <c r="B191" s="14" t="s">
         <v>448</v>
       </c>
       <c r="C191" s="12"/>
@@ -11308,7 +11308,7 @@
       <c r="C198" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D198" s="14" t="s">
+      <c r="D198" s="13" t="s">
         <v>470</v>
       </c>
       <c r="E198" s="7" t="s">
@@ -11514,10 +11514,10 @@
       <c r="C204" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="D204" s="14" t="s">
+      <c r="D204" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E204" s="14" t="s">
+      <c r="E204" s="13" t="s">
         <v>487</v>
       </c>
       <c r="F204" s="2"/>
@@ -11938,7 +11938,7 @@
     </row>
     <row r="217" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="2"/>
-      <c r="B217" s="13" t="s">
+      <c r="B217" s="14" t="s">
         <v>510</v>
       </c>
       <c r="C217" s="12"/>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="225" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="2"/>
-      <c r="B225" s="13" t="s">
+      <c r="B225" s="14" t="s">
         <v>528</v>
       </c>
       <c r="C225" s="12"/>
@@ -12705,7 +12705,7 @@
     </row>
     <row r="240" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="2"/>
-      <c r="B240" s="13" t="s">
+      <c r="B240" s="14" t="s">
         <v>563</v>
       </c>
       <c r="C240" s="12"/>
@@ -12843,10 +12843,10 @@
       <c r="C244" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="D244" s="14" t="s">
+      <c r="D244" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="E244" s="14" t="s">
+      <c r="E244" s="13" t="s">
         <v>574</v>
       </c>
       <c r="F244" s="2"/>
@@ -13416,7 +13416,7 @@
     </row>
     <row r="261" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="2"/>
-      <c r="B261" s="13" t="s">
+      <c r="B261" s="14" t="s">
         <v>613</v>
       </c>
       <c r="C261" s="12"/>
@@ -14044,7 +14044,7 @@
     </row>
     <row r="280" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="2"/>
-      <c r="B280" s="13" t="s">
+      <c r="B280" s="14" t="s">
         <v>651</v>
       </c>
       <c r="C280" s="12"/>
@@ -14689,7 +14689,7 @@
     </row>
     <row r="300" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="2"/>
-      <c r="B300" s="13" t="s">
+      <c r="B300" s="14" t="s">
         <v>681</v>
       </c>
       <c r="C300" s="12"/>
@@ -16887,7 +16887,7 @@
     </row>
     <row r="362" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="2"/>
-      <c r="B362" s="13" t="s">
+      <c r="B362" s="14" t="s">
         <v>854</v>
       </c>
       <c r="C362" s="12"/>
@@ -18480,7 +18480,7 @@
     </row>
     <row r="409" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="2"/>
-      <c r="B409" s="13" t="s">
+      <c r="B409" s="14" t="s">
         <v>970</v>
       </c>
       <c r="C409" s="12"/>
@@ -27708,22 +27708,49 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="E204:E209"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="D204:D209"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="D244:D247"/>
+    <mergeCell ref="E244:E247"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="B308:C308"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B362:C362"/>
+    <mergeCell ref="B363:C363"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="B384:C384"/>
+    <mergeCell ref="B393:C393"/>
+    <mergeCell ref="B402:C402"/>
+    <mergeCell ref="B409:C409"/>
+    <mergeCell ref="B410:C410"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="E119:E123"/>
+    <mergeCell ref="D120:D124"/>
     <mergeCell ref="D129:D130"/>
     <mergeCell ref="E129:E130"/>
     <mergeCell ref="E151:E158"/>
@@ -27740,49 +27767,22 @@
     <mergeCell ref="B143:C143"/>
     <mergeCell ref="B149:C149"/>
     <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E119:E123"/>
-    <mergeCell ref="D120:D124"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B384:C384"/>
-    <mergeCell ref="B393:C393"/>
-    <mergeCell ref="B402:C402"/>
-    <mergeCell ref="B409:C409"/>
-    <mergeCell ref="B410:C410"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="B374:C374"/>
-    <mergeCell ref="B308:C308"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B362:C362"/>
-    <mergeCell ref="B363:C363"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="D244:D247"/>
-    <mergeCell ref="E244:E247"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="D204:D209"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="E204:E209"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B225:C225"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Review Afterwards">
@@ -28484,8 +28484,8 @@
   </sheetPr>
   <dimension ref="A1:Z984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A73" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28530,7 +28530,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="18" t="str">
         <f>"COMPLETED: " &amp; TEXT(COUNTIF(A:A, "Completed"), "0") &amp; "/" &amp; TEXT(COUNTA(A:A), "0") &amp; " (" &amp; TEXT(COUNTIF(A:A, "Completed") / COUNTA(A:A), "0.00%") &amp; ")"</f>
-        <v>COMPLETED: 53/413 (12.83%)</v>
+        <v>COMPLETED: 55/413 (13.32%)</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="2"/>
@@ -28559,7 +28559,7 @@
     </row>
     <row r="3" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="12"/>
@@ -29561,7 +29561,7 @@
     </row>
     <row r="34" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C34" s="12"/>
@@ -29885,7 +29885,7 @@
     </row>
     <row r="44" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2"/>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C44" s="12"/>
@@ -31239,7 +31239,7 @@
     </row>
     <row r="85" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>1017</v>
@@ -31329,7 +31329,7 @@
     </row>
     <row r="88" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2"/>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="14" t="s">
         <v>200</v>
       </c>
       <c r="C88" s="12"/>
@@ -31389,7 +31389,7 @@
     </row>
     <row r="90" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>202</v>
@@ -32637,7 +32637,7 @@
     </row>
     <row r="128" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2"/>
-      <c r="B128" s="13" t="s">
+      <c r="B128" s="14" t="s">
         <v>1061</v>
       </c>
       <c r="C128" s="12"/>
@@ -33741,7 +33741,7 @@
     </row>
     <row r="162" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="2"/>
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="14" t="s">
         <v>283</v>
       </c>
       <c r="C162" s="12"/>
@@ -35289,7 +35289,7 @@
     </row>
     <row r="210" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="2"/>
-      <c r="B210" s="13" t="s">
+      <c r="B210" s="14" t="s">
         <v>357</v>
       </c>
       <c r="C210" s="12"/>
@@ -35989,7 +35989,7 @@
     </row>
     <row r="232" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="2"/>
-      <c r="B232" s="13" t="s">
+      <c r="B232" s="14" t="s">
         <v>391</v>
       </c>
       <c r="C232" s="12"/>
@@ -36787,7 +36787,7 @@
     </row>
     <row r="257" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="2"/>
-      <c r="B257" s="13" t="s">
+      <c r="B257" s="14" t="s">
         <v>448</v>
       </c>
       <c r="C257" s="12"/>
@@ -38147,7 +38147,7 @@
     </row>
     <row r="299" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="2"/>
-      <c r="B299" s="13" t="s">
+      <c r="B299" s="14" t="s">
         <v>510</v>
       </c>
       <c r="C299" s="12"/>
@@ -38655,7 +38655,7 @@
     </row>
     <row r="315" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="2"/>
-      <c r="B315" s="13" t="s">
+      <c r="B315" s="14" t="s">
         <v>1158</v>
       </c>
       <c r="C315" s="12"/>
@@ -39453,7 +39453,7 @@
     </row>
     <row r="340" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="2"/>
-      <c r="B340" s="13" t="s">
+      <c r="B340" s="14" t="s">
         <v>1178</v>
       </c>
       <c r="C340" s="12"/>
@@ -40199,7 +40199,7 @@
     </row>
     <row r="363" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="2"/>
-      <c r="B363" s="13" t="s">
+      <c r="B363" s="14" t="s">
         <v>1196</v>
       </c>
       <c r="C363" s="12"/>
@@ -41779,7 +41779,7 @@
     </row>
     <row r="411" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="2"/>
-      <c r="B411" s="13" t="s">
+      <c r="B411" s="14" t="s">
         <v>1242</v>
       </c>
       <c r="C411" s="12"/>
@@ -42491,7 +42491,7 @@
     </row>
     <row r="433" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="2"/>
-      <c r="B433" s="13" t="s">
+      <c r="B433" s="14" t="s">
         <v>681</v>
       </c>
       <c r="C433" s="12"/>
@@ -44839,7 +44839,7 @@
     </row>
     <row r="505" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="2"/>
-      <c r="B505" s="13" t="s">
+      <c r="B505" s="14" t="s">
         <v>854</v>
       </c>
       <c r="C505" s="12"/>
@@ -47547,7 +47547,7 @@
     </row>
     <row r="589" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="2"/>
-      <c r="B589" s="13" t="s">
+      <c r="B589" s="14" t="s">
         <v>970</v>
       </c>
       <c r="C589" s="12"/>
@@ -58681,55 +58681,21 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B340:C340"/>
-    <mergeCell ref="B341:C341"/>
-    <mergeCell ref="B349:C349"/>
-    <mergeCell ref="B363:C363"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="B315:C315"/>
-    <mergeCell ref="B316:C316"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B364:C364"/>
+    <mergeCell ref="B379:C379"/>
+    <mergeCell ref="B394:C394"/>
+    <mergeCell ref="B411:C411"/>
+    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="B418:C418"/>
+    <mergeCell ref="B433:C433"/>
+    <mergeCell ref="B434:C434"/>
+    <mergeCell ref="B442:C442"/>
+    <mergeCell ref="B459:C459"/>
+    <mergeCell ref="B469:C469"/>
+    <mergeCell ref="B485:C485"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B505:C505"/>
+    <mergeCell ref="B574:C574"/>
     <mergeCell ref="B584:C584"/>
     <mergeCell ref="B589:C589"/>
     <mergeCell ref="B590:C590"/>
@@ -58740,21 +58706,55 @@
     <mergeCell ref="B542:C542"/>
     <mergeCell ref="B555:C555"/>
     <mergeCell ref="B564:C564"/>
-    <mergeCell ref="B469:C469"/>
-    <mergeCell ref="B485:C485"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B505:C505"/>
-    <mergeCell ref="B574:C574"/>
-    <mergeCell ref="B418:C418"/>
-    <mergeCell ref="B433:C433"/>
-    <mergeCell ref="B434:C434"/>
-    <mergeCell ref="B442:C442"/>
-    <mergeCell ref="B459:C459"/>
-    <mergeCell ref="B364:C364"/>
-    <mergeCell ref="B379:C379"/>
-    <mergeCell ref="B394:C394"/>
-    <mergeCell ref="B411:C411"/>
-    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B340:C340"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="B349:C349"/>
+    <mergeCell ref="B363:C363"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="B316:C316"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="B331:C331"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Review Afterwards">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajjwal\OneDrive\Desktop\Python Programming\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676A9661-C6AC-4E79-9663-B0D8CC955464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330ED3D0-F1DB-4963-B252-708137183B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Course Sheet" sheetId="1" r:id="rId1"/>
@@ -4572,8 +4572,8 @@
   </sheetPr>
   <dimension ref="A1:Z748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4674,7 +4674,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="17" t="str">
         <f>"COMPLETED: " &amp; TEXT(COUNTIF(A:A, "Completed"), "0") &amp; "/" &amp; TEXT(COUNTA(A:A), "0") &amp; " (" &amp; TEXT(COUNTIF(A:A, "Completed") / COUNTA(A:A), "0.00%") &amp; ")"</f>
-        <v>COMPLETED: 56/269 (20.82%)</v>
+        <v>COMPLETED: 62/269 (23.05%)</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="3" t="s">
@@ -7616,7 +7616,7 @@
     </row>
     <row r="89" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>210</v>
@@ -7654,7 +7654,7 @@
     </row>
     <row r="90" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>212</v>
@@ -7692,7 +7692,7 @@
     </row>
     <row r="91" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>216</v>
@@ -7730,7 +7730,7 @@
     </row>
     <row r="92" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>220</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="93" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>224</v>
@@ -7806,7 +7806,7 @@
     </row>
     <row r="94" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>228</v>
@@ -28484,8 +28484,8 @@
   </sheetPr>
   <dimension ref="A1:Z984"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28530,7 +28530,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="18" t="str">
         <f>"COMPLETED: " &amp; TEXT(COUNTIF(A:A, "Completed"), "0") &amp; "/" &amp; TEXT(COUNTA(A:A), "0") &amp; " (" &amp; TEXT(COUNTIF(A:A, "Completed") / COUNTA(A:A), "0.00%") &amp; ")"</f>
-        <v>COMPLETED: 55/413 (13.32%)</v>
+        <v>COMPLETED: 62/413 (15.01%)</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="2"/>
@@ -31423,7 +31423,7 @@
     </row>
     <row r="91" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>206</v>
@@ -31457,7 +31457,7 @@
     </row>
     <row r="92" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>210</v>
@@ -31491,7 +31491,7 @@
     </row>
     <row r="93" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>212</v>
@@ -31525,7 +31525,7 @@
     </row>
     <row r="94" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>216</v>
@@ -31559,7 +31559,7 @@
     </row>
     <row r="95" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>220</v>
@@ -31593,7 +31593,7 @@
     </row>
     <row r="96" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>224</v>
@@ -31627,7 +31627,7 @@
     </row>
     <row r="97" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>228</v>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajjwal\OneDrive\Desktop\Python Programming\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330ED3D0-F1DB-4963-B252-708137183B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2593B1-D8B2-4856-9381-0FB657A96889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4263,11 +4263,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4573,7 +4573,7 @@
   <dimension ref="A1:Z748"/>
   <sheetViews>
     <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4674,7 +4674,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="17" t="str">
         <f>"COMPLETED: " &amp; TEXT(COUNTIF(A:A, "Completed"), "0") &amp; "/" &amp; TEXT(COUNTA(A:A), "0") &amp; " (" &amp; TEXT(COUNTIF(A:A, "Completed") / COUNTA(A:A), "0.00%") &amp; ")"</f>
-        <v>COMPLETED: 62/269 (23.05%)</v>
+        <v>COMPLETED: 64/269 (23.79%)</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="3" t="s">
@@ -4707,7 +4707,7 @@
     </row>
     <row r="5" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="12"/>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="42" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="12"/>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="53" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2"/>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C53" s="12"/>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="85" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2"/>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="13" t="s">
         <v>200</v>
       </c>
       <c r="C85" s="12"/>
@@ -7844,7 +7844,7 @@
     </row>
     <row r="95" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>232</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="96" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>236</v>
@@ -8001,7 +8001,7 @@
     </row>
     <row r="100" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2"/>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C100" s="12"/>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="117" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2"/>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="13" t="s">
         <v>283</v>
       </c>
       <c r="C117" s="12"/>
@@ -8645,7 +8645,7 @@
       <c r="D119" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="E119" s="13" t="s">
+      <c r="E119" s="14" t="s">
         <v>288</v>
       </c>
       <c r="F119" s="2"/>
@@ -8680,7 +8680,7 @@
       <c r="C120" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D120" s="13" t="s">
+      <c r="D120" s="14" t="s">
         <v>291</v>
       </c>
       <c r="E120" s="12"/>
@@ -8973,10 +8973,10 @@
       <c r="C129" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D129" s="13" t="s">
+      <c r="D129" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="E129" s="13" t="s">
+      <c r="E129" s="14" t="s">
         <v>308</v>
       </c>
       <c r="F129" s="2"/>
@@ -9649,7 +9649,7 @@
     </row>
     <row r="149" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2"/>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="13" t="s">
         <v>357</v>
       </c>
       <c r="C149" s="12"/>
@@ -9718,7 +9718,7 @@
       <c r="D151" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="E151" s="13" t="s">
+      <c r="E151" s="14" t="s">
         <v>362</v>
       </c>
       <c r="F151" s="2"/>
@@ -9753,7 +9753,7 @@
       <c r="C152" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D152" s="13" t="s">
+      <c r="D152" s="14" t="s">
         <v>365</v>
       </c>
       <c r="E152" s="12"/>
@@ -10236,7 +10236,7 @@
     </row>
     <row r="167" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="2"/>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="13" t="s">
         <v>391</v>
       </c>
       <c r="C167" s="12"/>
@@ -11052,7 +11052,7 @@
     </row>
     <row r="191" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="2"/>
-      <c r="B191" s="14" t="s">
+      <c r="B191" s="13" t="s">
         <v>448</v>
       </c>
       <c r="C191" s="12"/>
@@ -11308,7 +11308,7 @@
       <c r="C198" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D198" s="13" t="s">
+      <c r="D198" s="14" t="s">
         <v>470</v>
       </c>
       <c r="E198" s="7" t="s">
@@ -11514,10 +11514,10 @@
       <c r="C204" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="D204" s="13" t="s">
+      <c r="D204" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="E204" s="13" t="s">
+      <c r="E204" s="14" t="s">
         <v>487</v>
       </c>
       <c r="F204" s="2"/>
@@ -11938,7 +11938,7 @@
     </row>
     <row r="217" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="2"/>
-      <c r="B217" s="14" t="s">
+      <c r="B217" s="13" t="s">
         <v>510</v>
       </c>
       <c r="C217" s="12"/>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="225" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="2"/>
-      <c r="B225" s="14" t="s">
+      <c r="B225" s="13" t="s">
         <v>528</v>
       </c>
       <c r="C225" s="12"/>
@@ -12705,7 +12705,7 @@
     </row>
     <row r="240" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="2"/>
-      <c r="B240" s="14" t="s">
+      <c r="B240" s="13" t="s">
         <v>563</v>
       </c>
       <c r="C240" s="12"/>
@@ -12843,10 +12843,10 @@
       <c r="C244" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="D244" s="13" t="s">
+      <c r="D244" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="E244" s="13" t="s">
+      <c r="E244" s="14" t="s">
         <v>574</v>
       </c>
       <c r="F244" s="2"/>
@@ -13416,7 +13416,7 @@
     </row>
     <row r="261" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="2"/>
-      <c r="B261" s="14" t="s">
+      <c r="B261" s="13" t="s">
         <v>613</v>
       </c>
       <c r="C261" s="12"/>
@@ -14044,7 +14044,7 @@
     </row>
     <row r="280" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="2"/>
-      <c r="B280" s="14" t="s">
+      <c r="B280" s="13" t="s">
         <v>651</v>
       </c>
       <c r="C280" s="12"/>
@@ -14689,7 +14689,7 @@
     </row>
     <row r="300" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="2"/>
-      <c r="B300" s="14" t="s">
+      <c r="B300" s="13" t="s">
         <v>681</v>
       </c>
       <c r="C300" s="12"/>
@@ -16887,7 +16887,7 @@
     </row>
     <row r="362" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="2"/>
-      <c r="B362" s="14" t="s">
+      <c r="B362" s="13" t="s">
         <v>854</v>
       </c>
       <c r="C362" s="12"/>
@@ -18480,7 +18480,7 @@
     </row>
     <row r="409" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="2"/>
-      <c r="B409" s="14" t="s">
+      <c r="B409" s="13" t="s">
         <v>970</v>
       </c>
       <c r="C409" s="12"/>
@@ -27708,49 +27708,22 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="D244:D247"/>
-    <mergeCell ref="E244:E247"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="B374:C374"/>
-    <mergeCell ref="B308:C308"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B362:C362"/>
-    <mergeCell ref="B363:C363"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="B384:C384"/>
-    <mergeCell ref="B393:C393"/>
-    <mergeCell ref="B402:C402"/>
-    <mergeCell ref="B409:C409"/>
-    <mergeCell ref="B410:C410"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E119:E123"/>
-    <mergeCell ref="D120:D124"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="E204:E209"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="D204:D209"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B186:C186"/>
     <mergeCell ref="D129:D130"/>
     <mergeCell ref="E129:E130"/>
     <mergeCell ref="E151:E158"/>
@@ -27767,22 +27740,49 @@
     <mergeCell ref="B143:C143"/>
     <mergeCell ref="B149:C149"/>
     <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="D204:D209"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="E204:E209"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="E119:E123"/>
+    <mergeCell ref="D120:D124"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B384:C384"/>
+    <mergeCell ref="B393:C393"/>
+    <mergeCell ref="B402:C402"/>
+    <mergeCell ref="B409:C409"/>
+    <mergeCell ref="B410:C410"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="B308:C308"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B362:C362"/>
+    <mergeCell ref="B363:C363"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="D244:D247"/>
+    <mergeCell ref="E244:E247"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Review Afterwards">
@@ -28484,8 +28484,8 @@
   </sheetPr>
   <dimension ref="A1:Z984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28530,7 +28530,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="18" t="str">
         <f>"COMPLETED: " &amp; TEXT(COUNTIF(A:A, "Completed"), "0") &amp; "/" &amp; TEXT(COUNTA(A:A), "0") &amp; " (" &amp; TEXT(COUNTIF(A:A, "Completed") / COUNTA(A:A), "0.00%") &amp; ")"</f>
-        <v>COMPLETED: 62/413 (15.01%)</v>
+        <v>COMPLETED: 73/413 (17.68%)</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="2"/>
@@ -28559,7 +28559,7 @@
     </row>
     <row r="3" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="12"/>
@@ -29561,7 +29561,7 @@
     </row>
     <row r="34" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C34" s="12"/>
@@ -29885,7 +29885,7 @@
     </row>
     <row r="44" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2"/>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C44" s="12"/>
@@ -30439,7 +30439,7 @@
     </row>
     <row r="61" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>993</v>
@@ -30609,7 +30609,7 @@
     </row>
     <row r="66" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>997</v>
@@ -31329,7 +31329,7 @@
     </row>
     <row r="88" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2"/>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="13" t="s">
         <v>200</v>
       </c>
       <c r="C88" s="12"/>
@@ -31661,7 +31661,7 @@
     </row>
     <row r="98" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>232</v>
@@ -31695,7 +31695,7 @@
     </row>
     <row r="99" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>236</v>
@@ -31729,7 +31729,7 @@
     </row>
     <row r="100" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>1019</v>
@@ -31763,7 +31763,7 @@
     </row>
     <row r="101" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>1021</v>
@@ -31797,7 +31797,7 @@
     </row>
     <row r="102" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>1023</v>
@@ -31985,7 +31985,7 @@
     </row>
     <row r="108" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A108" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>1030</v>
@@ -32053,7 +32053,7 @@
     </row>
     <row r="110" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A110" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>1034</v>
@@ -32291,7 +32291,7 @@
     </row>
     <row r="117" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A117" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>1048</v>
@@ -32445,7 +32445,7 @@
     </row>
     <row r="122" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A122" s="5" t="s">
-        <v>8</v>
+        <v>1343</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>1053</v>
@@ -32637,7 +32637,7 @@
     </row>
     <row r="128" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2"/>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="13" t="s">
         <v>1061</v>
       </c>
       <c r="C128" s="12"/>
@@ -33741,7 +33741,7 @@
     </row>
     <row r="162" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="2"/>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="13" t="s">
         <v>283</v>
       </c>
       <c r="C162" s="12"/>
@@ -35289,7 +35289,7 @@
     </row>
     <row r="210" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="2"/>
-      <c r="B210" s="14" t="s">
+      <c r="B210" s="13" t="s">
         <v>357</v>
       </c>
       <c r="C210" s="12"/>
@@ -35989,7 +35989,7 @@
     </row>
     <row r="232" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="2"/>
-      <c r="B232" s="14" t="s">
+      <c r="B232" s="13" t="s">
         <v>391</v>
       </c>
       <c r="C232" s="12"/>
@@ -36787,7 +36787,7 @@
     </row>
     <row r="257" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="2"/>
-      <c r="B257" s="14" t="s">
+      <c r="B257" s="13" t="s">
         <v>448</v>
       </c>
       <c r="C257" s="12"/>
@@ -38147,7 +38147,7 @@
     </row>
     <row r="299" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="2"/>
-      <c r="B299" s="14" t="s">
+      <c r="B299" s="13" t="s">
         <v>510</v>
       </c>
       <c r="C299" s="12"/>
@@ -38655,7 +38655,7 @@
     </row>
     <row r="315" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="2"/>
-      <c r="B315" s="14" t="s">
+      <c r="B315" s="13" t="s">
         <v>1158</v>
       </c>
       <c r="C315" s="12"/>
@@ -39453,7 +39453,7 @@
     </row>
     <row r="340" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="2"/>
-      <c r="B340" s="14" t="s">
+      <c r="B340" s="13" t="s">
         <v>1178</v>
       </c>
       <c r="C340" s="12"/>
@@ -40199,7 +40199,7 @@
     </row>
     <row r="363" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="2"/>
-      <c r="B363" s="14" t="s">
+      <c r="B363" s="13" t="s">
         <v>1196</v>
       </c>
       <c r="C363" s="12"/>
@@ -41779,7 +41779,7 @@
     </row>
     <row r="411" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="2"/>
-      <c r="B411" s="14" t="s">
+      <c r="B411" s="13" t="s">
         <v>1242</v>
       </c>
       <c r="C411" s="12"/>
@@ -42491,7 +42491,7 @@
     </row>
     <row r="433" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="2"/>
-      <c r="B433" s="14" t="s">
+      <c r="B433" s="13" t="s">
         <v>681</v>
       </c>
       <c r="C433" s="12"/>
@@ -44839,7 +44839,7 @@
     </row>
     <row r="505" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="2"/>
-      <c r="B505" s="14" t="s">
+      <c r="B505" s="13" t="s">
         <v>854</v>
       </c>
       <c r="C505" s="12"/>
@@ -47547,7 +47547,7 @@
     </row>
     <row r="589" spans="1:26" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="2"/>
-      <c r="B589" s="14" t="s">
+      <c r="B589" s="13" t="s">
         <v>970</v>
       </c>
       <c r="C589" s="12"/>
@@ -58681,21 +58681,55 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B364:C364"/>
-    <mergeCell ref="B379:C379"/>
-    <mergeCell ref="B394:C394"/>
-    <mergeCell ref="B411:C411"/>
-    <mergeCell ref="B412:C412"/>
-    <mergeCell ref="B418:C418"/>
-    <mergeCell ref="B433:C433"/>
-    <mergeCell ref="B434:C434"/>
-    <mergeCell ref="B442:C442"/>
-    <mergeCell ref="B459:C459"/>
-    <mergeCell ref="B469:C469"/>
-    <mergeCell ref="B485:C485"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B505:C505"/>
-    <mergeCell ref="B574:C574"/>
+    <mergeCell ref="B340:C340"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="B349:C349"/>
+    <mergeCell ref="B363:C363"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="B316:C316"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B584:C584"/>
     <mergeCell ref="B589:C589"/>
     <mergeCell ref="B590:C590"/>
@@ -58706,55 +58740,21 @@
     <mergeCell ref="B542:C542"/>
     <mergeCell ref="B555:C555"/>
     <mergeCell ref="B564:C564"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="B340:C340"/>
-    <mergeCell ref="B341:C341"/>
-    <mergeCell ref="B349:C349"/>
-    <mergeCell ref="B363:C363"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="B315:C315"/>
-    <mergeCell ref="B316:C316"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="B469:C469"/>
+    <mergeCell ref="B485:C485"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B505:C505"/>
+    <mergeCell ref="B574:C574"/>
+    <mergeCell ref="B418:C418"/>
+    <mergeCell ref="B433:C433"/>
+    <mergeCell ref="B434:C434"/>
+    <mergeCell ref="B442:C442"/>
+    <mergeCell ref="B459:C459"/>
+    <mergeCell ref="B364:C364"/>
+    <mergeCell ref="B379:C379"/>
+    <mergeCell ref="B394:C394"/>
+    <mergeCell ref="B411:C411"/>
+    <mergeCell ref="B412:C412"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Review Afterwards">
